--- a/B2B Data Provider-sample1.xlsx
+++ b/B2B Data Provider-sample1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Everything On This PC\Udacity\Git_hseju\SoftwareRecommender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29682AF0-5DE9-4959-BFAF-05A51BD697D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD937741-F8C9-4CBA-A108-63C7BDD27C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -623,7 +623,7 @@
     <col min="6" max="8" width="20.1328125" customWidth="1"/>
     <col min="9" max="9" width="23.06640625" customWidth="1"/>
     <col min="11" max="11" width="70.53125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.1328125" customWidth="1"/>
+    <col min="12" max="12" width="39.59765625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="29.19921875" customWidth="1"/>
     <col min="14" max="14" width="17.53125" customWidth="1"/>
     <col min="15" max="15" width="21.3984375" customWidth="1"/>

--- a/B2B Data Provider-sample1.xlsx
+++ b/B2B Data Provider-sample1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Everything On This PC\Udacity\Git_hseju\SoftwareRecommender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD937741-F8C9-4CBA-A108-63C7BDD27C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018A9592-2427-47D4-8E83-188FCE30DAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="88">
   <si>
     <t>Company</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>Annual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMB, Mid-Market, Enterprise </t>
   </si>
   <si>
     <t>yes</t>
@@ -160,9 +157,6 @@
     <t>https://www.seamless.ai/pricing</t>
   </si>
   <si>
-    <t>SMB, Mid-Market</t>
-  </si>
-  <si>
     <t>RocketReach</t>
   </si>
   <si>
@@ -244,16 +238,10 @@
     <t>Contract</t>
   </si>
   <si>
-    <t>email, workphone, mobile</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
     <t>International</t>
-  </si>
-  <si>
-    <t>email, workphone</t>
   </si>
   <si>
     <t>Salesforce,HubSpot,Insightly,Pipedrive,Zoho,Microsoft Dynamics,Copper,Nimble</t>
@@ -274,9 +262,6 @@
     <t>HubSpot,Salesforce,Pipedrive,Nutshell,Zoho,Freshworks</t>
   </si>
   <si>
-    <t>Domestic,International</t>
-  </si>
-  <si>
     <t>Outreach,Salesloft,Reply,Woodpecker,Lemlist,Close</t>
   </si>
   <si>
@@ -287,6 +272,21 @@
   </si>
   <si>
     <t>Salesforce,HubSpot,Microsoft Dynamics,Keap,Zoho,Pipedrive,Copper,SugarCRM,Freshsales</t>
+  </si>
+  <si>
+    <t>USA/NorthAmerica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMB,MidMarket,Enterprise </t>
+  </si>
+  <si>
+    <t>SMB,MidMarket</t>
+  </si>
+  <si>
+    <t>email,workphone,mobile</t>
+  </si>
+  <si>
+    <t>email,workphone</t>
   </si>
 </sst>
 </file>
@@ -607,11 +607,11 @@
   </sheetPr>
   <dimension ref="A1:R999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomRight" activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -635,10 +635,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -653,7 +653,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>5</v>
@@ -665,25 +665,25 @@
         <v>7</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="89.25" x14ac:dyDescent="0.35">
@@ -712,28 +712,28 @@
         <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>83</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="3" spans="1:18" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -750,13 +750,13 @@
         <v>16500</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>14</v>
@@ -765,39 +765,39 @@
         <v>15</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="R3" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="9">
         <v>99</v>
@@ -806,40 +806,40 @@
         <v>888</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="G4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="L4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="P4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>83</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="5" spans="1:18" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="9">
         <v>99</v>
@@ -856,40 +856,40 @@
         <v>900</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="G5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="P5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>83</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="6" spans="1:18" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="9">
         <v>49</v>
@@ -906,46 +906,46 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>83</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="7" spans="1:18" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="9">
         <v>0</v>
@@ -962,40 +962,40 @@
         <v>1764</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="P7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>83</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="8" spans="1:18" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" s="9">
         <v>80</v>
@@ -1012,43 +1012,43 @@
         <v>468</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>83</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="9" spans="1:18" ht="31.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B9" s="9">
         <v>39</v>
@@ -1065,46 +1065,46 @@
         <v>348</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="H9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="N9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>83</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="10" spans="1:18" ht="36.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B10" s="9">
         <v>0</v>
@@ -1124,46 +1124,46 @@
         <v>348</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="O10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B11" s="9">
         <v>39</v>
@@ -1172,38 +1172,40 @@
         <v>396</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="L11" s="2" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>83</v>

--- a/B2B Data Provider-sample1.xlsx
+++ b/B2B Data Provider-sample1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Everything On This PC\Udacity\Git_hseju\SoftwareRecommender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018A9592-2427-47D4-8E83-188FCE30DAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB8BAC1-7927-491E-A0AD-B5CD8822BC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/B2B Data Provider-sample1.xlsx
+++ b/B2B Data Provider-sample1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Everything On This PC\Udacity\Git_hseju\SoftwareRecommender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C7D74B-B683-4D1D-820C-C79E0B8B141D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D25C6FF-E4BE-4CDA-A32F-0CA0A4F12BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="109">
   <si>
     <t>Company</t>
   </si>
@@ -294,6 +294,63 @@
   <si>
     <t>Price_max</t>
   </si>
+  <si>
+    <t>0,49,99</t>
+  </si>
+  <si>
+    <t>99, 199</t>
+  </si>
+  <si>
+    <t>900, 1800</t>
+  </si>
+  <si>
+    <t>890, 1790, 3590</t>
+  </si>
+  <si>
+    <t>0, 147</t>
+  </si>
+  <si>
+    <t>59, 119,299</t>
+  </si>
+  <si>
+    <t>468, 948, 2388</t>
+  </si>
+  <si>
+    <t>348, 528</t>
+  </si>
+  <si>
+    <t>0,39</t>
+  </si>
+  <si>
+    <t>29, 49</t>
+  </si>
+  <si>
+    <t>39, 99, 189,369,738</t>
+  </si>
+  <si>
+    <t>0,74,149,299</t>
+  </si>
+  <si>
+    <t>0,0</t>
+  </si>
+  <si>
+    <t>11995,</t>
+  </si>
+  <si>
+    <t>16500,</t>
+  </si>
+  <si>
+    <t>6000,</t>
+  </si>
+  <si>
+    <t>1764,</t>
+  </si>
+  <si>
+    <t>348,</t>
+  </si>
+  <si>
+    <t>396,</t>
+  </si>
 </sst>
 </file>
 
@@ -302,7 +359,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -336,6 +393,11 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -617,7 +679,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -702,11 +764,11 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9">
-        <v>11995</v>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="D2" s="9">
         <v>11995</v>
@@ -761,11 +823,11 @@
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="9">
-        <v>16500</v>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="D3" s="9">
         <v>16500</v>
@@ -823,11 +885,11 @@
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="9">
-        <v>99</v>
-      </c>
-      <c r="C4" s="9">
-        <v>888</v>
+      <c r="B4" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="D4" s="9">
         <v>888</v>
@@ -879,11 +941,11 @@
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="9">
-        <v>99</v>
-      </c>
-      <c r="C5" s="9">
-        <v>900</v>
+      <c r="B5" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="D5" s="9">
         <v>900</v>
@@ -935,14 +997,14 @@
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="9">
-        <v>49</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="B6" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="9">
         <v>0</v>
-      </c>
-      <c r="D6" s="9">
-        <v>49</v>
       </c>
       <c r="E6" s="9">
         <v>6000</v>
@@ -997,11 +1059,11 @@
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="9">
-        <v>0</v>
-      </c>
-      <c r="C7" s="9">
-        <v>1764</v>
+      <c r="B7" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="D7" s="9">
         <v>1764</v>
@@ -1053,11 +1115,11 @@
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="9">
-        <v>80</v>
-      </c>
-      <c r="C8" s="9">
-        <v>468</v>
+      <c r="B8" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="D8" s="9">
         <v>468</v>
@@ -1112,11 +1174,11 @@
       <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="9">
-        <v>39</v>
-      </c>
-      <c r="C9" s="9">
-        <v>348</v>
+      <c r="B9" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="D9" s="9">
         <v>348</v>
@@ -1174,11 +1236,11 @@
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="9">
-        <v>0</v>
-      </c>
-      <c r="C10" s="9">
-        <v>348</v>
+      <c r="B10" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
@@ -1231,11 +1293,11 @@
       <c r="A11" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="9">
-        <v>39</v>
-      </c>
-      <c r="C11" s="9">
-        <v>396</v>
+      <c r="B11" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="D11" s="9">
         <v>39</v>
@@ -12152,6 +12214,7 @@
       <c r="N999" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="H3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>

--- a/B2B Data Provider-sample1.xlsx
+++ b/B2B Data Provider-sample1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Everything On This PC\Udacity\Git_hseju\SoftwareRecommender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D25C6FF-E4BE-4CDA-A32F-0CA0A4F12BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5935BF-D9A9-45A1-B4CB-B6A5045FE05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="113">
   <si>
     <t>Company</t>
   </si>
@@ -351,6 +351,18 @@
   <si>
     <t>396,</t>
   </si>
+  <si>
+    <t>credits</t>
+  </si>
+  <si>
+    <t>5, 2040, 4800, 12000</t>
+  </si>
+  <si>
+    <t>1000,5000, 20000, 50000, 100000</t>
+  </si>
+  <si>
+    <t>10, 250, 1000</t>
+  </si>
 </sst>
 </file>
 
@@ -432,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -455,6 +467,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,13 +686,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T999"/>
+  <dimension ref="A1:U999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -696,9 +709,11 @@
     <col min="16" max="16" width="17.53125" customWidth="1"/>
     <col min="17" max="17" width="21.3984375" customWidth="1"/>
     <col min="19" max="19" width="70.59765625" customWidth="1"/>
+    <col min="20" max="20" width="16.06640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="46.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="46.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -759,8 +774,11 @@
       <c r="T1" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="89.25" x14ac:dyDescent="0.35">
+      <c r="U1" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="89.25" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -818,8 +836,11 @@
       <c r="T2" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="U2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -880,8 +901,11 @@
       <c r="T3" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="U3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -936,8 +960,11 @@
       <c r="T4" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U4" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -993,7 +1020,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1054,8 +1081,11 @@
       <c r="T6" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="U6" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -1111,7 +1141,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
@@ -1170,7 +1200,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="31.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="31.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
@@ -1232,7 +1262,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="36.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="36.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
@@ -1289,7 +1319,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>59</v>
       </c>
@@ -1344,8 +1374,11 @@
       <c r="T11" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="U11" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1356,7 +1389,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:20" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1367,7 +1400,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:20" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1378,7 +1411,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:20" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1389,7 +1422,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:20" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>

--- a/B2B Data Provider-sample1.xlsx
+++ b/B2B Data Provider-sample1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Everything On This PC\Udacity\Git_hseju\SoftwareRecommender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5935BF-D9A9-45A1-B4CB-B6A5045FE05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF96E77-E58D-4E3F-837D-7BD82F242AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="140">
   <si>
     <t>Company</t>
   </si>
@@ -295,9 +295,6 @@
     <t>Price_max</t>
   </si>
   <si>
-    <t>0,49,99</t>
-  </si>
-  <si>
     <t>99, 199</t>
   </si>
   <si>
@@ -313,45 +310,18 @@
     <t>59, 119,299</t>
   </si>
   <si>
-    <t>468, 948, 2388</t>
-  </si>
-  <si>
-    <t>348, 528</t>
-  </si>
-  <si>
-    <t>0,39</t>
-  </si>
-  <si>
     <t>29, 49</t>
   </si>
   <si>
     <t>39, 99, 189,369,738</t>
   </si>
   <si>
-    <t>0,74,149,299</t>
-  </si>
-  <si>
     <t>0,0</t>
   </si>
   <si>
-    <t>11995,</t>
-  </si>
-  <si>
     <t>16500,</t>
   </si>
   <si>
-    <t>6000,</t>
-  </si>
-  <si>
-    <t>1764,</t>
-  </si>
-  <si>
-    <t>348,</t>
-  </si>
-  <si>
-    <t>396,</t>
-  </si>
-  <si>
     <t>credits</t>
   </si>
   <si>
@@ -362,6 +332,122 @@
   </si>
   <si>
     <t>10, 250, 1000</t>
+  </si>
+  <si>
+    <t>AP1</t>
+  </si>
+  <si>
+    <t>AP1_credit</t>
+  </si>
+  <si>
+    <t>AP2</t>
+  </si>
+  <si>
+    <t>AP2_credit</t>
+  </si>
+  <si>
+    <t>AP3</t>
+  </si>
+  <si>
+    <t>AP3_credit</t>
+  </si>
+  <si>
+    <t>AP4</t>
+  </si>
+  <si>
+    <t>AP4_credit</t>
+  </si>
+  <si>
+    <t>AP5</t>
+  </si>
+  <si>
+    <t>AP5_credit</t>
+  </si>
+  <si>
+    <t>MP1</t>
+  </si>
+  <si>
+    <t>MP1_credit</t>
+  </si>
+  <si>
+    <t>MP2</t>
+  </si>
+  <si>
+    <t>MP2_credit</t>
+  </si>
+  <si>
+    <t>MP3</t>
+  </si>
+  <si>
+    <t>MP3_credit</t>
+  </si>
+  <si>
+    <t>MP4</t>
+  </si>
+  <si>
+    <t>MP4_credit</t>
+  </si>
+  <si>
+    <t>MP5</t>
+  </si>
+  <si>
+    <t>MP5_credit</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>unlimited</t>
+  </si>
+  <si>
+    <t>*email only, doesn't include phone numbers
+** 50 mobile numbers a month
+*** custom for phone numbers</t>
+  </si>
+  <si>
+    <t>*email only, doesn't include phone numbers
+**2 seat minimum, that price includes 2 seats, goes up to 5, each additional seat is $996/year
+***2 seat minimum, that price includes 2 seats, goes up to 5, each seat is $2484/year</t>
+  </si>
+  <si>
+    <t>*multiple options to increase credit amount</t>
+  </si>
+  <si>
+    <t>STARTUP focus</t>
+  </si>
+  <si>
+    <t>*email only
+**could be considered unlimited given volume</t>
+  </si>
+  <si>
+    <t>11995,15995,24995, 34995</t>
+  </si>
+  <si>
+    <t>49,99</t>
+  </si>
+  <si>
+    <t>99,199, 399</t>
+  </si>
+  <si>
+    <t>1764, 2346</t>
+  </si>
+  <si>
+    <t>468, ,948, 6000</t>
+  </si>
+  <si>
+    <t>468, 1188, 1992, 2988, 4968</t>
+  </si>
+  <si>
+    <t>348, 612</t>
+  </si>
+  <si>
+    <t>39, 69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000, </t>
+  </si>
+  <si>
+    <t>396, 996, 1896, 3696, 7380</t>
   </si>
 </sst>
 </file>
@@ -371,7 +457,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -411,8 +497,23 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,6 +532,12 @@
         <bgColor rgb="FFF5F8FA"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -444,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -468,6 +575,28 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,13 +815,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U999"/>
+  <dimension ref="A1:AP999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V8" sqref="V8"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -711,9 +840,11 @@
     <col min="19" max="19" width="70.59765625" customWidth="1"/>
     <col min="20" max="20" width="16.06640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="28.9296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="41" width="12.59765625" style="17"/>
+    <col min="42" max="42" width="88.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="46.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" ht="46.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -775,18 +906,81 @@
         <v>71</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB1" s="14" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="89.25" x14ac:dyDescent="0.35">
+      <c r="AC1" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD1" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE1" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF1" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG1" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH1" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI1" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ1" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK1" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL1" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM1" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN1" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="AO1" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="AP1" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" ht="89.25" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="D2" s="9">
         <v>11995</v>
@@ -839,16 +1033,77 @@
       <c r="U2" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="V2" s="16">
+        <v>11995</v>
+      </c>
+      <c r="W2" s="15">
+        <v>5000</v>
+      </c>
+      <c r="X2" s="15">
+        <v>15995</v>
+      </c>
+      <c r="Y2" s="15">
+        <v>5000</v>
+      </c>
+      <c r="Z2" s="15">
+        <v>24995</v>
+      </c>
+      <c r="AA2" s="15">
+        <v>10000</v>
+      </c>
+      <c r="AB2" s="15">
+        <v>34995</v>
+      </c>
+      <c r="AC2" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP2" s="11"/>
+    </row>
+    <row r="3" spans="1:42" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D3" s="9">
         <v>16500</v>
@@ -904,16 +1159,77 @@
       <c r="U3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="V3" s="16">
+        <v>16500</v>
+      </c>
+      <c r="W3" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="X3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP3" s="11"/>
+    </row>
+    <row r="4" spans="1:42" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="9">
         <v>888</v>
@@ -961,18 +1277,79 @@
         <v>83</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+      <c r="V4" s="16">
+        <v>890</v>
+      </c>
+      <c r="W4" s="15">
+        <v>2040</v>
+      </c>
+      <c r="X4" s="16">
+        <v>1790</v>
+      </c>
+      <c r="Y4" s="16">
+        <v>4800</v>
+      </c>
+      <c r="Z4" s="16">
+        <v>3590</v>
+      </c>
+      <c r="AA4" s="16">
+        <v>12000</v>
+      </c>
+      <c r="AB4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC4" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF4" s="16">
+        <v>99</v>
+      </c>
+      <c r="AG4" s="16">
+        <v>170</v>
+      </c>
+      <c r="AH4" s="16">
+        <v>199</v>
+      </c>
+      <c r="AI4" s="16">
+        <v>400</v>
+      </c>
+      <c r="AJ4" s="16">
+        <v>399</v>
+      </c>
+      <c r="AK4" s="16">
+        <v>100</v>
+      </c>
+      <c r="AL4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP4" s="11"/>
+    </row>
+    <row r="5" spans="1:42" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>92</v>
       </c>
       <c r="D5" s="9">
         <v>900</v>
@@ -1019,16 +1396,77 @@
       <c r="T5" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="V5" s="16">
+        <v>900</v>
+      </c>
+      <c r="W5" s="16">
+        <v>2400</v>
+      </c>
+      <c r="X5" s="16">
+        <v>1800</v>
+      </c>
+      <c r="Y5" s="16">
+        <v>5400</v>
+      </c>
+      <c r="Z5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA5" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF5" s="16">
+        <v>99</v>
+      </c>
+      <c r="AG5" s="16">
+        <v>200</v>
+      </c>
+      <c r="AH5" s="16">
+        <v>199</v>
+      </c>
+      <c r="AI5" s="16">
+        <v>450</v>
+      </c>
+      <c r="AJ5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP5" s="11"/>
+    </row>
+    <row r="6" spans="1:42" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
@@ -1082,18 +1520,81 @@
         <v>83</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="25.5" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+      <c r="V6" s="16">
+        <v>468</v>
+      </c>
+      <c r="W6" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="X6" s="16">
+        <v>948</v>
+      </c>
+      <c r="Y6" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z6" s="16">
+        <v>6000</v>
+      </c>
+      <c r="AA6" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF6" s="16">
+        <v>49</v>
+      </c>
+      <c r="AG6" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH6" s="16">
+        <v>99</v>
+      </c>
+      <c r="AI6" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP6" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="D7" s="9">
         <v>1764</v>
@@ -1140,16 +1641,77 @@
       <c r="T7" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="V7" s="16">
+        <v>1764</v>
+      </c>
+      <c r="W7" s="16">
+        <v>1750</v>
+      </c>
+      <c r="X7" s="16">
+        <v>2346</v>
+      </c>
+      <c r="Y7" s="16">
+        <v>30000</v>
+      </c>
+      <c r="Z7" s="16">
+        <v>9528</v>
+      </c>
+      <c r="AA7" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP7" s="11"/>
+    </row>
+    <row r="8" spans="1:42" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="D8" s="9">
         <v>468</v>
@@ -1199,16 +1761,79 @@
       <c r="T8" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" ht="31.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="V8" s="16">
+        <v>468</v>
+      </c>
+      <c r="W8" s="14">
+        <v>1200</v>
+      </c>
+      <c r="X8" s="16">
+        <v>1188</v>
+      </c>
+      <c r="Y8" s="16">
+        <v>3600</v>
+      </c>
+      <c r="Z8" s="16">
+        <v>1992</v>
+      </c>
+      <c r="AA8" s="16">
+        <v>7200</v>
+      </c>
+      <c r="AB8" s="16">
+        <v>2988</v>
+      </c>
+      <c r="AC8" s="16">
+        <v>10000</v>
+      </c>
+      <c r="AD8" s="16">
+        <v>4968</v>
+      </c>
+      <c r="AE8" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AF8" s="16">
+        <v>80</v>
+      </c>
+      <c r="AG8" s="16">
+        <v>80</v>
+      </c>
+      <c r="AH8" s="16">
+        <v>150</v>
+      </c>
+      <c r="AI8" s="16">
+        <v>200</v>
+      </c>
+      <c r="AJ8" s="16">
+        <v>300</v>
+      </c>
+      <c r="AK8" s="16">
+        <v>500</v>
+      </c>
+      <c r="AL8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP8" s="18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" ht="31.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="D9" s="9">
         <v>348</v>
@@ -1261,16 +1886,79 @@
       <c r="T9" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" ht="36.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="V9" s="16">
+        <v>348</v>
+      </c>
+      <c r="W9" s="16">
+        <v>480</v>
+      </c>
+      <c r="X9" s="16">
+        <v>612</v>
+      </c>
+      <c r="Y9" s="16">
+        <v>960</v>
+      </c>
+      <c r="Z9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF9" s="16">
+        <v>39</v>
+      </c>
+      <c r="AG9" s="16">
+        <v>40</v>
+      </c>
+      <c r="AH9" s="16">
+        <v>69</v>
+      </c>
+      <c r="AI9" s="16">
+        <v>80</v>
+      </c>
+      <c r="AJ9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP9" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" ht="36.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
@@ -1318,16 +2006,79 @@
       <c r="T10" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="V10" s="16">
+        <v>2000</v>
+      </c>
+      <c r="W10" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP10" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="D11" s="9">
         <v>39</v>
@@ -1375,10 +2126,73 @@
         <v>83</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="12.75" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+      <c r="V11" s="16">
+        <v>396</v>
+      </c>
+      <c r="W11" s="16">
+        <v>1000</v>
+      </c>
+      <c r="X11" s="16">
+        <v>996</v>
+      </c>
+      <c r="Y11" s="16">
+        <v>5000</v>
+      </c>
+      <c r="Z11" s="16">
+        <v>1896</v>
+      </c>
+      <c r="AA11" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AB11" s="14">
+        <v>3696</v>
+      </c>
+      <c r="AC11" s="14">
+        <v>50000</v>
+      </c>
+      <c r="AD11" s="16">
+        <v>7380</v>
+      </c>
+      <c r="AE11" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF11" s="16">
+        <v>39</v>
+      </c>
+      <c r="AG11" s="16">
+        <v>1000</v>
+      </c>
+      <c r="AH11" s="16">
+        <v>99</v>
+      </c>
+      <c r="AI11" s="16">
+        <v>5000</v>
+      </c>
+      <c r="AJ11" s="16">
+        <v>189</v>
+      </c>
+      <c r="AK11" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AL11" s="16">
+        <v>369</v>
+      </c>
+      <c r="AM11" s="16">
+        <v>50000</v>
+      </c>
+      <c r="AN11" s="16">
+        <v>738</v>
+      </c>
+      <c r="AO11" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP11" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1389,7 +2203,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:21" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:42" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1400,7 +2214,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:21" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:42" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1411,7 +2225,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:21" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:42" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1422,7 +2236,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:21" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:42" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -12268,5 +13082,6 @@
     <hyperlink ref="I11" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/B2B Data Provider-sample1.xlsx
+++ b/B2B Data Provider-sample1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Everything On This PC\Udacity\Git_hseju\SoftwareRecommender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF96E77-E58D-4E3F-837D-7BD82F242AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A470A269-8961-4C32-A0E8-4D23506A4CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="147">
   <si>
     <t>Company</t>
   </si>
@@ -307,9 +307,6 @@
     <t>0, 147</t>
   </si>
   <si>
-    <t>59, 119,299</t>
-  </si>
-  <si>
     <t>29, 49</t>
   </si>
   <si>
@@ -448,6 +445,30 @@
   </si>
   <si>
     <t>396, 996, 1896, 3696, 7380</t>
+  </si>
+  <si>
+    <t>80, 150,300</t>
+  </si>
+  <si>
+    <t>https://try.zoominfo.com/1srqimygamud</t>
+  </si>
+  <si>
+    <t>https://cognism.grsm.io/revpilots</t>
+  </si>
+  <si>
+    <t>https://www.uplead.com?fp_ref=revpilots</t>
+  </si>
+  <si>
+    <t>https://apollo.grsm.io/revpilots</t>
+  </si>
+  <si>
+    <t>https://snov.io?_get=revpilots</t>
+  </si>
+  <si>
+    <t>links</t>
+  </si>
+  <si>
+    <t>Not Available</t>
   </si>
 </sst>
 </file>
@@ -457,7 +478,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -512,6 +533,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -548,10 +576,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -597,8 +626,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -815,13 +846,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AP999"/>
+  <dimension ref="A1:AQ999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="AR10" activeCellId="1" sqref="AQ7:AQ10 AR10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -844,7 +875,7 @@
     <col min="42" max="42" width="88.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="46.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" ht="46.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -906,81 +937,84 @@
         <v>71</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V1" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="W1" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="X1" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="Y1" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Z1" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="AA1" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AB1" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AC1" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AD1" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AE1" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AF1" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AG1" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="AG1" s="14" t="s">
+      <c r="AH1" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AI1" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="AI1" s="14" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="AJ1" s="14" t="s">
+      <c r="AK1" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="AK1" s="14" t="s">
+      <c r="AL1" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="AL1" s="14" t="s">
+      <c r="AM1" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="AM1" s="14" t="s">
+      <c r="AN1" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="AN1" s="14" t="s">
+      <c r="AO1" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="AO1" s="14" t="s">
+      <c r="AP1" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="AP1" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:42" ht="89.25" x14ac:dyDescent="0.35">
+      <c r="AQ1" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" ht="89.25" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D2" s="9">
         <v>11995</v>
@@ -1055,7 +1089,7 @@
         <v>34995</v>
       </c>
       <c r="AC2" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AD2" s="14" t="s">
         <v>14</v>
@@ -1094,16 +1128,19 @@
         <v>14</v>
       </c>
       <c r="AP2" s="11"/>
-    </row>
-    <row r="3" spans="1:42" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="AQ2" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>98</v>
       </c>
       <c r="D3" s="9">
         <v>16500</v>
@@ -1163,7 +1200,7 @@
         <v>16500</v>
       </c>
       <c r="W3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X3" s="14" t="s">
         <v>14</v>
@@ -1220,13 +1257,16 @@
         <v>14</v>
       </c>
       <c r="AP3" s="11"/>
-    </row>
-    <row r="4" spans="1:42" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="AQ3" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>92</v>
@@ -1277,7 +1317,7 @@
         <v>83</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="V4" s="16">
         <v>890</v>
@@ -1301,7 +1341,7 @@
         <v>14</v>
       </c>
       <c r="AC4" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AD4" s="14" t="s">
         <v>14</v>
@@ -1340,8 +1380,11 @@
         <v>14</v>
       </c>
       <c r="AP4" s="11"/>
-    </row>
-    <row r="5" spans="1:42" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ4" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -1412,7 +1455,7 @@
         <v>14</v>
       </c>
       <c r="AA5" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AB5" s="14" t="s">
         <v>14</v>
@@ -1457,16 +1500,19 @@
         <v>14</v>
       </c>
       <c r="AP5" s="11"/>
-    </row>
-    <row r="6" spans="1:42" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="AQ5" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
@@ -1520,25 +1566,25 @@
         <v>83</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V6" s="16">
         <v>468</v>
       </c>
       <c r="W6" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X6" s="16">
         <v>948</v>
       </c>
       <c r="Y6" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Z6" s="16">
         <v>6000</v>
       </c>
       <c r="AA6" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AB6" s="14" t="s">
         <v>14</v>
@@ -1556,13 +1602,13 @@
         <v>49</v>
       </c>
       <c r="AG6" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AH6" s="16">
         <v>99</v>
       </c>
       <c r="AI6" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AJ6" s="14" t="s">
         <v>14</v>
@@ -1583,10 +1629,13 @@
         <v>14</v>
       </c>
       <c r="AP6" s="12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42" ht="25.5" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="AQ6" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -1594,7 +1643,7 @@
         <v>93</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D7" s="9">
         <v>1764</v>
@@ -1657,7 +1706,7 @@
         <v>9528</v>
       </c>
       <c r="AA7" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AB7" s="14" t="s">
         <v>14</v>
@@ -1702,16 +1751,19 @@
         <v>14</v>
       </c>
       <c r="AP7" s="11"/>
-    </row>
-    <row r="8" spans="1:42" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ7" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D8" s="9">
         <v>468</v>
@@ -1822,18 +1874,21 @@
         <v>14</v>
       </c>
       <c r="AP8" s="18" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42" ht="31.9" customHeight="1" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+      <c r="AQ8" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" ht="31.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D9" s="9">
         <v>348</v>
@@ -1947,18 +2002,21 @@
         <v>14</v>
       </c>
       <c r="AP9" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" ht="36.4" customHeight="1" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+      <c r="AQ9" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" ht="36.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
@@ -2010,7 +2068,7 @@
         <v>2000</v>
       </c>
       <c r="W10" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X10" s="14" t="s">
         <v>14</v>
@@ -2067,18 +2125,21 @@
         <v>14</v>
       </c>
       <c r="AP10" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+      <c r="AQ10" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D11" s="9">
         <v>39</v>
@@ -2126,7 +2187,7 @@
         <v>83</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V11" s="16">
         <v>396</v>
@@ -2156,7 +2217,7 @@
         <v>7380</v>
       </c>
       <c r="AE11" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF11" s="16">
         <v>39</v>
@@ -2186,13 +2247,16 @@
         <v>738</v>
       </c>
       <c r="AO11" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AP11" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42" ht="12.75" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+      <c r="AQ11" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2203,7 +2267,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:42" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:43" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2214,7 +2278,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:42" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:43" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -2225,7 +2289,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:42" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:43" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2236,7 +2300,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:42" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:43" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -13080,8 +13144,13 @@
     <hyperlink ref="I10" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="A11" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="I11" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="AQ2" r:id="rId18" xr:uid="{A04B91CC-220A-485D-B509-1F2E4EA978E8}"/>
+    <hyperlink ref="AQ3" r:id="rId19" xr:uid="{5F7BF206-DD09-4E24-86AF-3DD9D88787AC}"/>
+    <hyperlink ref="AQ4" r:id="rId20" display="https://www.uplead.com/?fp_ref=revpilots" xr:uid="{049CB50C-27CB-4C1C-BF9D-0E5A9A498669}"/>
+    <hyperlink ref="AQ6" r:id="rId21" xr:uid="{FB3BF2E5-02BF-4019-ADC8-8154F107F766}"/>
+    <hyperlink ref="AQ11" r:id="rId22" display="https://snov.io/?_get=revpilots" xr:uid="{07A4BCE2-485D-47F5-B661-4777587172CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
--- a/B2B Data Provider-sample1.xlsx
+++ b/B2B Data Provider-sample1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Everything On This PC\Udacity\Git_hseju\SoftwareRecommender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A470A269-8961-4C32-A0E8-4D23506A4CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835A5D3E-A04F-458A-8BF1-56BD08B5283D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="148">
   <si>
     <t>Company</t>
   </si>
@@ -429,9 +429,6 @@
     <t>1764, 2346</t>
   </si>
   <si>
-    <t>468, ,948, 6000</t>
-  </si>
-  <si>
     <t>468, 1188, 1992, 2988, 4968</t>
   </si>
   <si>
@@ -468,7 +465,13 @@
     <t>links</t>
   </si>
   <si>
-    <t>Not Available</t>
+    <t>https://seamless.ai/pricing</t>
+  </si>
+  <si>
+    <t>https://about.crunchbase.com/products/pricing/</t>
+  </si>
+  <si>
+    <t>468, 948, 6000</t>
   </si>
 </sst>
 </file>
@@ -580,7 +583,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -627,6 +630,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -849,10 +855,10 @@
   <dimension ref="A1:AQ999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AR10" activeCellId="1" sqref="AQ7:AQ10 AR10"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -873,6 +879,7 @@
     <col min="21" max="21" width="28.9296875" bestFit="1" customWidth="1"/>
     <col min="22" max="41" width="12.59765625" style="17"/>
     <col min="42" max="42" width="88.3984375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="33.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="46.9" customHeight="1" x14ac:dyDescent="0.35">
@@ -1003,7 +1010,7 @@
         <v>122</v>
       </c>
       <c r="AQ1" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:43" ht="89.25" x14ac:dyDescent="0.35">
@@ -1129,7 +1136,7 @@
       </c>
       <c r="AP2" s="11"/>
       <c r="AQ2" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:43" ht="25.5" x14ac:dyDescent="0.35">
@@ -1258,7 +1265,7 @@
       </c>
       <c r="AP3" s="11"/>
       <c r="AQ3" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:43" ht="25.5" x14ac:dyDescent="0.35">
@@ -1381,7 +1388,7 @@
       </c>
       <c r="AP4" s="11"/>
       <c r="AQ4" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -1500,8 +1507,8 @@
         <v>14</v>
       </c>
       <c r="AP5" s="11"/>
-      <c r="AQ5" s="14" t="s">
-        <v>146</v>
+      <c r="AQ5" s="20" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:43" ht="25.5" x14ac:dyDescent="0.35">
@@ -1512,7 +1519,7 @@
         <v>130</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
@@ -1632,7 +1639,7 @@
         <v>124</v>
       </c>
       <c r="AQ6" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:43" ht="25.5" x14ac:dyDescent="0.35">
@@ -1751,8 +1758,8 @@
         <v>14</v>
       </c>
       <c r="AP7" s="11"/>
-      <c r="AQ7" s="14" t="s">
-        <v>146</v>
+      <c r="AQ7" s="20" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:43" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
@@ -1760,10 +1767,10 @@
         <v>44</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D8" s="9">
         <v>468</v>
@@ -1876,8 +1883,8 @@
       <c r="AP8" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="AQ8" s="14" t="s">
-        <v>146</v>
+      <c r="AQ8" s="20" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:43" ht="31.9" customHeight="1" x14ac:dyDescent="0.35">
@@ -1885,10 +1892,10 @@
         <v>48</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D9" s="9">
         <v>348</v>
@@ -2004,8 +2011,8 @@
       <c r="AP9" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AQ9" s="14" t="s">
-        <v>146</v>
+      <c r="AQ9" s="20" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:43" ht="36.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -2016,7 +2023,7 @@
         <v>94</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
@@ -2127,7 +2134,7 @@
       <c r="AP10" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AQ10" s="14" t="s">
+      <c r="AQ10" s="20" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2139,7 +2146,7 @@
         <v>95</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D11" s="9">
         <v>39</v>
@@ -2253,7 +2260,7 @@
         <v>128</v>
       </c>
       <c r="AQ11" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:43" ht="12.75" x14ac:dyDescent="0.35">
@@ -13149,8 +13156,13 @@
     <hyperlink ref="AQ4" r:id="rId20" display="https://www.uplead.com/?fp_ref=revpilots" xr:uid="{049CB50C-27CB-4C1C-BF9D-0E5A9A498669}"/>
     <hyperlink ref="AQ6" r:id="rId21" xr:uid="{FB3BF2E5-02BF-4019-ADC8-8154F107F766}"/>
     <hyperlink ref="AQ11" r:id="rId22" display="https://snov.io/?_get=revpilots" xr:uid="{07A4BCE2-485D-47F5-B661-4777587172CB}"/>
+    <hyperlink ref="AQ5" r:id="rId23" xr:uid="{B51CAAE3-7372-4497-83E5-1CD1B57A0C40}"/>
+    <hyperlink ref="AQ7" r:id="rId24" xr:uid="{C411C00B-0CF3-4E60-973E-A742DA547AEF}"/>
+    <hyperlink ref="AQ8" r:id="rId25" xr:uid="{BBDF5AD6-458A-48B9-82B5-9B3CB28F711E}"/>
+    <hyperlink ref="AQ9" r:id="rId26" xr:uid="{693C046A-9804-4DF5-838A-1E70DABCC7D2}"/>
+    <hyperlink ref="AQ10" r:id="rId27" xr:uid="{E0C86081-9F69-45C3-AF54-21209D45B581}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId23"/>
+  <pageSetup orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
--- a/B2B Data Provider-sample1.xlsx
+++ b/B2B Data Provider-sample1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Everything On This PC\Udacity\Git_hseju\SoftwareRecommender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835A5D3E-A04F-458A-8BF1-56BD08B5283D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D628942-DCB9-47C5-820D-DE18EF7C92D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -241,9 +241,6 @@
     <t>location</t>
   </si>
   <si>
-    <t>International</t>
-  </si>
-  <si>
     <t>Salesforce,HubSpot,Insightly,Pipedrive,Zoho,Microsoft Dynamics,Copper,Nimble</t>
   </si>
   <si>
@@ -472,6 +469,9 @@
   </si>
   <si>
     <t>468, 948, 6000</t>
+  </si>
+  <si>
+    <t>USA/NorthAmerica,International</t>
   </si>
 </sst>
 </file>
@@ -855,10 +855,10 @@
   <dimension ref="A1:AQ999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -875,7 +875,7 @@
     <col min="16" max="16" width="17.53125" customWidth="1"/>
     <col min="17" max="17" width="21.3984375" customWidth="1"/>
     <col min="19" max="19" width="70.59765625" customWidth="1"/>
-    <col min="20" max="20" width="16.06640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.265625" customWidth="1"/>
     <col min="21" max="21" width="28.9296875" bestFit="1" customWidth="1"/>
     <col min="22" max="41" width="12.59765625" style="17"/>
     <col min="42" max="42" width="88.3984375" bestFit="1" customWidth="1"/>
@@ -893,10 +893,10 @@
         <v>64</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -944,73 +944,73 @@
         <v>71</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="V1" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="W1" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="X1" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="Y1" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Z1" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="AA1" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AB1" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AC1" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AD1" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AE1" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AF1" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AG1" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="AG1" s="14" t="s">
+      <c r="AH1" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AI1" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="AI1" s="14" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="AJ1" s="14" t="s">
+      <c r="AK1" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="AK1" s="14" t="s">
+      <c r="AL1" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="AL1" s="14" t="s">
+      <c r="AM1" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="AM1" s="14" t="s">
+      <c r="AN1" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="AN1" s="14" t="s">
+      <c r="AO1" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="AO1" s="14" t="s">
+      <c r="AP1" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="AP1" s="11" t="s">
-        <v>122</v>
-      </c>
       <c r="AQ1" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:43" ht="89.25" x14ac:dyDescent="0.35">
@@ -1018,10 +1018,10 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D2" s="9">
         <v>11995</v>
@@ -1045,16 +1045,16 @@
         <v>15</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>16</v>
@@ -1069,7 +1069,7 @@
         <v>18</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>14</v>
@@ -1096,7 +1096,7 @@
         <v>34995</v>
       </c>
       <c r="AC2" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AD2" s="14" t="s">
         <v>14</v>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="AP2" s="11"/>
       <c r="AQ2" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:43" ht="25.5" x14ac:dyDescent="0.35">
@@ -1144,10 +1144,10 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>97</v>
       </c>
       <c r="D3" s="9">
         <v>16500</v>
@@ -1171,19 +1171,19 @@
         <v>15</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>16</v>
@@ -1198,7 +1198,7 @@
         <v>24</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>14</v>
@@ -1207,7 +1207,7 @@
         <v>16500</v>
       </c>
       <c r="W3" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X3" s="14" t="s">
         <v>14</v>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="AP3" s="11"/>
       <c r="AQ3" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:43" ht="25.5" x14ac:dyDescent="0.35">
@@ -1273,10 +1273,10 @@
         <v>25</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" s="9">
         <v>888</v>
@@ -1300,16 +1300,16 @@
         <v>69</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>16</v>
@@ -1321,10 +1321,10 @@
         <v>17</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V4" s="16">
         <v>890</v>
@@ -1348,7 +1348,7 @@
         <v>14</v>
       </c>
       <c r="AC4" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AD4" s="14" t="s">
         <v>14</v>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="AP4" s="11"/>
       <c r="AQ4" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -1396,10 +1396,10 @@
         <v>29</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>91</v>
       </c>
       <c r="D5" s="9">
         <v>900</v>
@@ -1423,16 +1423,16 @@
         <v>69</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>16</v>
@@ -1444,7 +1444,7 @@
         <v>17</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V5" s="16">
         <v>900</v>
@@ -1462,7 +1462,7 @@
         <v>14</v>
       </c>
       <c r="AA5" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AB5" s="14" t="s">
         <v>14</v>
@@ -1516,10 +1516,10 @@
         <v>33</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
@@ -1543,19 +1543,19 @@
         <v>69</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>16</v>
@@ -1570,28 +1570,28 @@
         <v>39</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V6" s="16">
         <v>468</v>
       </c>
       <c r="W6" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X6" s="16">
         <v>948</v>
       </c>
       <c r="Y6" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Z6" s="16">
         <v>6000</v>
       </c>
       <c r="AA6" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AB6" s="14" t="s">
         <v>14</v>
@@ -1609,13 +1609,13 @@
         <v>49</v>
       </c>
       <c r="AG6" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AH6" s="16">
         <v>99</v>
       </c>
       <c r="AI6" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AJ6" s="14" t="s">
         <v>14</v>
@@ -1636,10 +1636,10 @@
         <v>14</v>
       </c>
       <c r="AP6" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AQ6" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:43" ht="25.5" x14ac:dyDescent="0.35">
@@ -1647,10 +1647,10 @@
         <v>40</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D7" s="9">
         <v>1764</v>
@@ -1674,16 +1674,16 @@
         <v>15</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>16</v>
@@ -1695,7 +1695,7 @@
         <v>38</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V7" s="16">
         <v>1764</v>
@@ -1713,7 +1713,7 @@
         <v>9528</v>
       </c>
       <c r="AA7" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AB7" s="14" t="s">
         <v>14</v>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="AP7" s="11"/>
       <c r="AQ7" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:43" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
@@ -1767,10 +1767,10 @@
         <v>44</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D8" s="9">
         <v>468</v>
@@ -1794,19 +1794,19 @@
         <v>69</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>16</v>
@@ -1818,7 +1818,7 @@
         <v>38</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V8" s="16">
         <v>468</v>
@@ -1881,7 +1881,7 @@
         <v>14</v>
       </c>
       <c r="AP8" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AQ8" s="20" t="s">
         <v>47</v>
@@ -1892,10 +1892,10 @@
         <v>48</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" s="9">
         <v>348</v>
@@ -1919,16 +1919,16 @@
         <v>69</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>38</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>52</v>
@@ -1946,7 +1946,7 @@
         <v>53</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V9" s="16">
         <v>348</v>
@@ -2009,7 +2009,7 @@
         <v>14</v>
       </c>
       <c r="AP9" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AQ9" s="20" t="s">
         <v>51</v>
@@ -2020,10 +2020,10 @@
         <v>54</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
@@ -2054,7 +2054,7 @@
         <v>14</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>16</v>
@@ -2069,13 +2069,13 @@
         <v>58</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V10" s="16">
         <v>2000</v>
       </c>
       <c r="W10" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X10" s="14" t="s">
         <v>14</v>
@@ -2132,10 +2132,10 @@
         <v>14</v>
       </c>
       <c r="AP10" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AQ10" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2143,10 +2143,10 @@
         <v>59</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D11" s="9">
         <v>39</v>
@@ -2170,13 +2170,13 @@
         <v>56</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>16</v>
@@ -2191,10 +2191,10 @@
         <v>62</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="V11" s="16">
         <v>396</v>
@@ -2224,7 +2224,7 @@
         <v>7380</v>
       </c>
       <c r="AE11" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF11" s="16">
         <v>39</v>
@@ -2254,13 +2254,13 @@
         <v>738</v>
       </c>
       <c r="AO11" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AP11" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AQ11" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:43" ht="12.75" x14ac:dyDescent="0.35">

--- a/B2B Data Provider-sample1.xlsx
+++ b/B2B Data Provider-sample1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Everything On This PC\Udacity\Git_hseju\SoftwareRecommender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D628942-DCB9-47C5-820D-DE18EF7C92D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5251915B-F215-4243-9ADA-817ABBB7A54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -313,9 +313,6 @@
     <t>0,0</t>
   </si>
   <si>
-    <t>16500,</t>
-  </si>
-  <si>
     <t>credits</t>
   </si>
   <si>
@@ -472,6 +469,9 @@
   </si>
   <si>
     <t>USA/NorthAmerica,International</t>
+  </si>
+  <si>
+    <t>16500, 27500</t>
   </si>
 </sst>
 </file>
@@ -855,10 +855,10 @@
   <dimension ref="A1:AQ999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -944,73 +944,73 @@
         <v>71</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V1" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="W1" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="X1" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="Y1" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Z1" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="AA1" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AB1" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AC1" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AD1" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AE1" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AF1" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AG1" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="AG1" s="14" t="s">
+      <c r="AH1" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AI1" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="AI1" s="14" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="AJ1" s="14" t="s">
+      <c r="AK1" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="AK1" s="14" t="s">
+      <c r="AL1" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="AL1" s="14" t="s">
+      <c r="AM1" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="AM1" s="14" t="s">
+      <c r="AN1" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="AN1" s="14" t="s">
+      <c r="AO1" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="AO1" s="14" t="s">
+      <c r="AP1" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="AP1" s="11" t="s">
-        <v>121</v>
-      </c>
       <c r="AQ1" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:43" ht="89.25" x14ac:dyDescent="0.35">
@@ -1021,7 +1021,7 @@
         <v>95</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="9">
         <v>11995</v>
@@ -1096,7 +1096,7 @@
         <v>34995</v>
       </c>
       <c r="AC2" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AD2" s="14" t="s">
         <v>14</v>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="AP2" s="11"/>
       <c r="AQ2" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:43" ht="25.5" x14ac:dyDescent="0.35">
@@ -1147,7 +1147,7 @@
         <v>95</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="D3" s="9">
         <v>16500</v>
@@ -1198,7 +1198,7 @@
         <v>24</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>14</v>
@@ -1207,7 +1207,7 @@
         <v>16500</v>
       </c>
       <c r="W3" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X3" s="14" t="s">
         <v>14</v>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="AP3" s="11"/>
       <c r="AQ3" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:43" ht="25.5" x14ac:dyDescent="0.35">
@@ -1273,7 +1273,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>91</v>
@@ -1324,7 +1324,7 @@
         <v>82</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="V4" s="16">
         <v>890</v>
@@ -1348,7 +1348,7 @@
         <v>14</v>
       </c>
       <c r="AC4" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AD4" s="14" t="s">
         <v>14</v>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="AP4" s="11"/>
       <c r="AQ4" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -1462,7 +1462,7 @@
         <v>14</v>
       </c>
       <c r="AA5" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AB5" s="14" t="s">
         <v>14</v>
@@ -1516,10 +1516,10 @@
         <v>33</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>82</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="V6" s="16">
         <v>468</v>
       </c>
       <c r="W6" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X6" s="16">
         <v>948</v>
       </c>
       <c r="Y6" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z6" s="16">
         <v>6000</v>
       </c>
       <c r="AA6" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AB6" s="14" t="s">
         <v>14</v>
@@ -1609,13 +1609,13 @@
         <v>49</v>
       </c>
       <c r="AG6" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AH6" s="16">
         <v>99</v>
       </c>
       <c r="AI6" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AJ6" s="14" t="s">
         <v>14</v>
@@ -1636,10 +1636,10 @@
         <v>14</v>
       </c>
       <c r="AP6" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AQ6" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:43" ht="25.5" x14ac:dyDescent="0.35">
@@ -1650,7 +1650,7 @@
         <v>92</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D7" s="9">
         <v>1764</v>
@@ -1713,7 +1713,7 @@
         <v>9528</v>
       </c>
       <c r="AA7" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AB7" s="14" t="s">
         <v>14</v>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="AP7" s="11"/>
       <c r="AQ7" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:43" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
@@ -1767,10 +1767,10 @@
         <v>44</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D8" s="9">
         <v>468</v>
@@ -1881,7 +1881,7 @@
         <v>14</v>
       </c>
       <c r="AP8" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AQ8" s="20" t="s">
         <v>47</v>
@@ -1892,10 +1892,10 @@
         <v>48</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D9" s="9">
         <v>348</v>
@@ -2009,7 +2009,7 @@
         <v>14</v>
       </c>
       <c r="AP9" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AQ9" s="20" t="s">
         <v>51</v>
@@ -2023,7 +2023,7 @@
         <v>93</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>2000</v>
       </c>
       <c r="W10" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X10" s="14" t="s">
         <v>14</v>
@@ -2132,10 +2132,10 @@
         <v>14</v>
       </c>
       <c r="AP10" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AQ10" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2146,7 +2146,7 @@
         <v>94</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D11" s="9">
         <v>39</v>
@@ -2194,7 +2194,7 @@
         <v>82</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V11" s="16">
         <v>396</v>
@@ -2224,7 +2224,7 @@
         <v>7380</v>
       </c>
       <c r="AE11" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF11" s="16">
         <v>39</v>
@@ -2254,13 +2254,13 @@
         <v>738</v>
       </c>
       <c r="AO11" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AP11" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AQ11" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:43" ht="12.75" x14ac:dyDescent="0.35">

--- a/B2B Data Provider-sample1.xlsx
+++ b/B2B Data Provider-sample1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Everything On This PC\Udacity\Git_hseju\SoftwareRecommender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5251915B-F215-4243-9ADA-817ABBB7A54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42ECF10E-6521-4423-9381-094C58F03F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="147">
   <si>
     <t>Company</t>
   </si>
@@ -302,9 +302,6 @@
   </si>
   <si>
     <t>0, 147</t>
-  </si>
-  <si>
-    <t>29, 49</t>
   </si>
   <si>
     <t>39, 99, 189,369,738</t>
@@ -855,10 +852,10 @@
   <dimension ref="A1:AQ999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -944,73 +941,73 @@
         <v>71</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V1" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="W1" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="X1" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="Y1" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Z1" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="AA1" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AB1" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AC1" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AD1" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AE1" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AF1" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AG1" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="AG1" s="14" t="s">
+      <c r="AH1" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AI1" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="AI1" s="14" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="AJ1" s="14" t="s">
+      <c r="AK1" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="AK1" s="14" t="s">
+      <c r="AL1" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="AL1" s="14" t="s">
+      <c r="AM1" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="AM1" s="14" t="s">
+      <c r="AN1" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="AN1" s="14" t="s">
+      <c r="AO1" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="AO1" s="14" t="s">
+      <c r="AP1" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="AP1" s="11" t="s">
-        <v>120</v>
-      </c>
       <c r="AQ1" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:43" ht="89.25" x14ac:dyDescent="0.35">
@@ -1018,10 +1015,10 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D2" s="9">
         <v>11995</v>
@@ -1096,7 +1093,7 @@
         <v>34995</v>
       </c>
       <c r="AC2" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AD2" s="14" t="s">
         <v>14</v>
@@ -1136,7 +1133,7 @@
       </c>
       <c r="AP2" s="11"/>
       <c r="AQ2" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:43" ht="25.5" x14ac:dyDescent="0.35">
@@ -1144,10 +1141,10 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="9">
         <v>16500</v>
@@ -1198,7 +1195,7 @@
         <v>24</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>14</v>
@@ -1207,7 +1204,7 @@
         <v>16500</v>
       </c>
       <c r="W3" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X3" s="14" t="s">
         <v>14</v>
@@ -1265,7 +1262,7 @@
       </c>
       <c r="AP3" s="11"/>
       <c r="AQ3" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:43" ht="25.5" x14ac:dyDescent="0.35">
@@ -1273,7 +1270,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>91</v>
@@ -1324,7 +1321,7 @@
         <v>82</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V4" s="16">
         <v>890</v>
@@ -1348,7 +1345,7 @@
         <v>14</v>
       </c>
       <c r="AC4" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AD4" s="14" t="s">
         <v>14</v>
@@ -1388,7 +1385,7 @@
       </c>
       <c r="AP4" s="11"/>
       <c r="AQ4" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -1462,7 +1459,7 @@
         <v>14</v>
       </c>
       <c r="AA5" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB5" s="14" t="s">
         <v>14</v>
@@ -1516,10 +1513,10 @@
         <v>33</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
@@ -1573,25 +1570,25 @@
         <v>82</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V6" s="16">
         <v>468</v>
       </c>
       <c r="W6" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X6" s="16">
         <v>948</v>
       </c>
       <c r="Y6" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Z6" s="16">
         <v>6000</v>
       </c>
       <c r="AA6" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB6" s="14" t="s">
         <v>14</v>
@@ -1609,13 +1606,13 @@
         <v>49</v>
       </c>
       <c r="AG6" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AH6" s="16">
         <v>99</v>
       </c>
       <c r="AI6" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AJ6" s="14" t="s">
         <v>14</v>
@@ -1636,10 +1633,10 @@
         <v>14</v>
       </c>
       <c r="AP6" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AQ6" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:43" ht="25.5" x14ac:dyDescent="0.35">
@@ -1650,7 +1647,7 @@
         <v>92</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D7" s="9">
         <v>1764</v>
@@ -1713,7 +1710,7 @@
         <v>9528</v>
       </c>
       <c r="AA7" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB7" s="14" t="s">
         <v>14</v>
@@ -1759,7 +1756,7 @@
       </c>
       <c r="AP7" s="11"/>
       <c r="AQ7" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:43" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
@@ -1767,10 +1764,10 @@
         <v>44</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D8" s="9">
         <v>468</v>
@@ -1881,7 +1878,7 @@
         <v>14</v>
       </c>
       <c r="AP8" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AQ8" s="20" t="s">
         <v>47</v>
@@ -1892,10 +1889,10 @@
         <v>48</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D9" s="9">
         <v>348</v>
@@ -2009,7 +2006,7 @@
         <v>14</v>
       </c>
       <c r="AP9" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AQ9" s="20" t="s">
         <v>51</v>
@@ -2020,10 +2017,10 @@
         <v>54</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
@@ -2042,7 +2039,7 @@
         <v>55</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>56</v>
@@ -2063,7 +2060,7 @@
         <v>38</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>58</v>
@@ -2075,7 +2072,7 @@
         <v>2000</v>
       </c>
       <c r="W10" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X10" s="14" t="s">
         <v>14</v>
@@ -2132,10 +2129,10 @@
         <v>14</v>
       </c>
       <c r="AP10" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AQ10" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2143,10 +2140,10 @@
         <v>59</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D11" s="9">
         <v>39</v>
@@ -2164,7 +2161,7 @@
         <v>61</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>56</v>
@@ -2194,7 +2191,7 @@
         <v>82</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="V11" s="16">
         <v>396</v>
@@ -2224,7 +2221,7 @@
         <v>7380</v>
       </c>
       <c r="AE11" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF11" s="16">
         <v>39</v>
@@ -2254,13 +2251,13 @@
         <v>738</v>
       </c>
       <c r="AO11" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AP11" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AQ11" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:43" ht="12.75" x14ac:dyDescent="0.35">

--- a/B2B Data Provider-sample1.xlsx
+++ b/B2B Data Provider-sample1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Everything On This PC\Udacity\Git_hseju\SoftwareRecommender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42ECF10E-6521-4423-9381-094C58F03F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F636602-FCFF-49A7-B59A-CE73CF06E583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -429,9 +429,6 @@
     <t>39, 69</t>
   </si>
   <si>
-    <t xml:space="preserve">2000, </t>
-  </si>
-  <si>
     <t>396, 996, 1896, 3696, 7380</t>
   </si>
   <si>
@@ -469,6 +466,9 @@
   </si>
   <si>
     <t>16500, 27500</t>
+  </si>
+  <si>
+    <t>2000,</t>
   </si>
 </sst>
 </file>
@@ -852,10 +852,10 @@
   <dimension ref="A1:AQ999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q8" sqref="Q8"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1007,7 +1007,7 @@
         <v>119</v>
       </c>
       <c r="AQ1" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:43" ht="89.25" x14ac:dyDescent="0.35">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="AP2" s="11"/>
       <c r="AQ2" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:43" ht="25.5" x14ac:dyDescent="0.35">
@@ -1144,7 +1144,7 @@
         <v>94</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D3" s="9">
         <v>16500</v>
@@ -1195,7 +1195,7 @@
         <v>24</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>14</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="AP3" s="11"/>
       <c r="AQ3" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:43" ht="25.5" x14ac:dyDescent="0.35">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="AP4" s="11"/>
       <c r="AQ4" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -1516,7 +1516,7 @@
         <v>127</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
@@ -1636,7 +1636,7 @@
         <v>121</v>
       </c>
       <c r="AQ6" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:43" ht="25.5" x14ac:dyDescent="0.35">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="AP7" s="11"/>
       <c r="AQ7" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:43" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
@@ -1764,7 +1764,7 @@
         <v>44</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>130</v>
@@ -2020,7 +2020,7 @@
         <v>94</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>124</v>
       </c>
       <c r="AQ10" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2143,7 +2143,7 @@
         <v>93</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D11" s="9">
         <v>39</v>
@@ -2257,7 +2257,7 @@
         <v>125</v>
       </c>
       <c r="AQ11" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:43" ht="12.75" x14ac:dyDescent="0.35">

--- a/B2B Data Provider-sample1.xlsx
+++ b/B2B Data Provider-sample1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Everything On This PC\Udacity\Git_hseju\SoftwareRecommender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F636602-FCFF-49A7-B59A-CE73CF06E583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44C4E27-C010-4301-92EB-84DA4455A3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,7 +468,7 @@
     <t>16500, 27500</t>
   </si>
   <si>
-    <t>2000,</t>
+    <t>348, 588, 2000</t>
   </si>
 </sst>
 </file>

--- a/B2B Data Provider-sample1.xlsx
+++ b/B2B Data Provider-sample1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Everything On This PC\Udacity\Git_hseju\SoftwareRecommender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44C4E27-C010-4301-92EB-84DA4455A3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4281208-FB21-4DE3-A2DE-D3ACF287B878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,13 +462,13 @@
     <t>468, 948, 6000</t>
   </si>
   <si>
+    <t>16500, 27500</t>
+  </si>
+  <si>
+    <t>348, 588, 2000</t>
+  </si>
+  <si>
     <t>USA/NorthAmerica,International</t>
-  </si>
-  <si>
-    <t>16500, 27500</t>
-  </si>
-  <si>
-    <t>348, 588, 2000</t>
   </si>
 </sst>
 </file>
@@ -852,10 +852,10 @@
   <dimension ref="A1:AQ999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -872,7 +872,7 @@
     <col min="16" max="16" width="17.53125" customWidth="1"/>
     <col min="17" max="17" width="21.3984375" customWidth="1"/>
     <col min="19" max="19" width="70.59765625" customWidth="1"/>
-    <col min="20" max="20" width="26.265625" customWidth="1"/>
+    <col min="20" max="20" width="35.06640625" customWidth="1"/>
     <col min="21" max="21" width="28.9296875" bestFit="1" customWidth="1"/>
     <col min="22" max="41" width="12.59765625" style="17"/>
     <col min="42" max="42" width="88.3984375" bestFit="1" customWidth="1"/>
@@ -1144,7 +1144,7 @@
         <v>94</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" s="9">
         <v>16500</v>
@@ -1195,7 +1195,7 @@
         <v>24</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>14</v>
@@ -2020,7 +2020,7 @@
         <v>94</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
